--- a/Chla NPP Raw TAN1810 Sept.xlsx
+++ b/Chla NPP Raw TAN1810 Sept.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gutierreza/OneDrive - NIWA/NIWA/Cruises/TAN1810/RESULTS/14C/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/a190104_e_ntu_edu_sg/Documents/Sync/C14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5785B4C3-8A88-D747-97FD-FEF7AE43E5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{5785B4C3-8A88-D747-97FD-FEF7AE43E5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36DE9148-6F7E-9F43-B7A0-60C0CFACFA02}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="28800" windowHeight="15840" xr2:uid="{B58FDA5F-C642-47F4-85EC-4C4CDDE34750}"/>
   </bookViews>
@@ -2042,10 +2042,10 @@
   <dimension ref="A1:MU401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="AC369" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AL372" sqref="AL372:AM372"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4253,7 +4253,7 @@
         <v>174.22966666666667</v>
       </c>
       <c r="K22" s="17">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L22" s="131">
         <v>43501</v>
@@ -4680,7 +4680,7 @@
         <v>174.22966666666667</v>
       </c>
       <c r="K26" s="53">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L26" s="128">
         <v>43501</v>
@@ -5092,7 +5092,7 @@
         <v>174.22966666666667</v>
       </c>
       <c r="K30" s="17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L30" s="131">
         <v>43529</v>
@@ -5506,7 +5506,7 @@
         <v>174.22966666666667</v>
       </c>
       <c r="K34" s="53">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L34" s="128">
         <v>43529</v>
@@ -5914,7 +5914,7 @@
         <v>174.22966666666667</v>
       </c>
       <c r="K38" s="17">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L38" s="131">
         <v>43529</v>
@@ -48874,6 +48874,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FE645E44DF4C347A076E5154A1E1A44" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5540a43bda451fd1f603e82bdd2c2e22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="0e9b77c3-686e-41f8-8658-848585ae3dd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1032ffb6c5698aeb6b8514bfe6c240d4" ns1:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -49048,25 +49066,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40DEE15-0DFC-47C3-99E1-30D877720169}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DDE3344-DA54-4FED-BD22-12DB614E7072}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0e9b77c3-686e-41f8-8658-848585ae3dd1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233D6EEC-7CEA-4537-A320-1E1E1AA182A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49083,29 +49108,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DDE3344-DA54-4FED-BD22-12DB614E7072}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="0e9b77c3-686e-41f8-8658-848585ae3dd1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40DEE15-0DFC-47C3-99E1-30D877720169}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>